--- a/assets/excel/2021_8-1-1.xlsx
+++ b/assets/excel/2021_8-1-1.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940C6A64-020B-47C6-9C59-5E3BCBF03A1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340CD26-B0EB-4AA3-8444-29297616594D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{3ED27CCD-7831-47CD-9649-40DDA4FF2B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -95,7 +92,7 @@
   </si>
   <si>
     <r>
-      <t>Tabelle 8.1.1: Bei Bundes- und Landtagswahlen wahlberechtigte Bevölkerung mit Zuwanderungsgeschichte nach Altersgruppen und Geschlecht im Jahr 2020</t>
+      <t>Tabelle 8.1.1: Bei Bundes- und Landtagswahlen wahlberechtigte Bevölkerung mit Zuwanderungsgeschichte nach Altersgruppen und Geschlecht im Jahr 2019</t>
     </r>
     <r>
       <rPr>
@@ -117,18 +114,10 @@
     <numFmt numFmtId="166" formatCode="[&lt;5]&quot;-&quot;;[&lt;10]\(0.0\);#\ ###.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,12 +163,6 @@
       <color theme="1"/>
       <name val="NDSFrutiger 45 Light"/>
     </font>
-    <font>
-      <u/>
-      <sz val="6"/>
-      <color theme="10"/>
-      <name val="NDSFrutiger 45 Light"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -364,184 +347,182 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard_Tabelle_A_6_HT" xfId="2" xr:uid="{2CFE44AD-1037-4D6A-B68D-718D552FDBB1}"/>
+    <cellStyle name="Standard_Tabelle_A_6_HT" xfId="1" xr:uid="{2CFE44AD-1037-4D6A-B68D-718D552FDBB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,680 +535,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="2019_8_1_1_Download"/>
-      <sheetName val="2019_8_1_1_CSV"/>
-      <sheetName val=" 2011"/>
-      <sheetName val=" 2012"/>
-      <sheetName val=" 2013"/>
-      <sheetName val=" 2014"/>
-      <sheetName val=" 2015"/>
-      <sheetName val=" 2016"/>
-      <sheetName val=" 2017"/>
-      <sheetName val=" 2018"/>
-      <sheetName val=" 2019"/>
-      <sheetName val="A14_Alte_Tabelle"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="11">
-          <cell r="G11">
-            <v>49395.95</v>
-          </cell>
-          <cell r="H11">
-            <v>43413.77</v>
-          </cell>
-          <cell r="K11">
-            <v>301658.03999999998</v>
-          </cell>
-          <cell r="L11">
-            <v>281934.38</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>101923.83</v>
-          </cell>
-          <cell r="H12">
-            <v>104175.31</v>
-          </cell>
-          <cell r="K12">
-            <v>883514.88</v>
-          </cell>
-          <cell r="L12">
-            <v>880167.82</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>86011.29</v>
-          </cell>
-          <cell r="H13">
-            <v>96004.52</v>
-          </cell>
-          <cell r="K13">
-            <v>1054046.01</v>
-          </cell>
-          <cell r="L13">
-            <v>1056172.53</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>31317.98</v>
-          </cell>
-          <cell r="H14">
-            <v>42319.46</v>
-          </cell>
-          <cell r="K14">
-            <v>688214.65</v>
-          </cell>
-          <cell r="L14">
-            <v>919766.96</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>268649.05</v>
-          </cell>
-          <cell r="H15">
-            <v>285913.06</v>
-          </cell>
-          <cell r="K15">
-            <v>2927433.57</v>
-          </cell>
-          <cell r="L15">
-            <v>3138041.69</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="11">
-          <cell r="G11">
-            <v>46041.52</v>
-          </cell>
-          <cell r="H11">
-            <v>39716.99</v>
-          </cell>
-          <cell r="K11">
-            <v>290850.27</v>
-          </cell>
-          <cell r="L11">
-            <v>268533.53000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>101174.34</v>
-          </cell>
-          <cell r="H12">
-            <v>105360.62</v>
-          </cell>
-          <cell r="K12">
-            <v>865545.4</v>
-          </cell>
-          <cell r="L12">
-            <v>863870.46</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>93794.14</v>
-          </cell>
-          <cell r="H13">
-            <v>98775.85</v>
-          </cell>
-          <cell r="K13">
-            <v>1081160.21</v>
-          </cell>
-          <cell r="L13">
-            <v>1074117.8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>30689.88</v>
-          </cell>
-          <cell r="H14">
-            <v>45083.24</v>
-          </cell>
-          <cell r="K14">
-            <v>687710.92</v>
-          </cell>
-          <cell r="L14">
-            <v>921016.62</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>271699.88</v>
-          </cell>
-          <cell r="H15">
-            <v>288936.7</v>
-          </cell>
-          <cell r="K15">
-            <v>2925266.8</v>
-          </cell>
-          <cell r="L15">
-            <v>3127538.41</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="11">
-          <cell r="G11">
-            <v>43561.42</v>
-          </cell>
-          <cell r="H11">
-            <v>42883.63</v>
-          </cell>
-          <cell r="K11">
-            <v>282679.53000000003</v>
-          </cell>
-          <cell r="L11">
-            <v>267627.99</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>109297.98</v>
-          </cell>
-          <cell r="H12">
-            <v>106544.49</v>
-          </cell>
-          <cell r="K12">
-            <v>857653.18</v>
-          </cell>
-          <cell r="L12">
-            <v>841970.18</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>95905.46</v>
-          </cell>
-          <cell r="H13">
-            <v>100406.27</v>
-          </cell>
-          <cell r="K13">
-            <v>1080666.43</v>
-          </cell>
-          <cell r="L13">
-            <v>1095399.3600000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>32456.25</v>
-          </cell>
-          <cell r="H14">
-            <v>46073.46</v>
-          </cell>
-          <cell r="K14">
-            <v>708739.03</v>
-          </cell>
-          <cell r="L14">
-            <v>924700.76</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>281221.11</v>
-          </cell>
-          <cell r="H15">
-            <v>295907.86</v>
-          </cell>
-          <cell r="K15">
-            <v>2929738.17</v>
-          </cell>
-          <cell r="L15">
-            <v>3129698.29</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="11">
-          <cell r="G11">
-            <v>36484.699999999997</v>
-          </cell>
-          <cell r="H11">
-            <v>37825.53</v>
-          </cell>
-          <cell r="K11">
-            <v>281661.89</v>
-          </cell>
-          <cell r="L11">
-            <v>263337.42</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>107875.08</v>
-          </cell>
-          <cell r="H12">
-            <v>109114.68</v>
-          </cell>
-          <cell r="K12">
-            <v>846676.9</v>
-          </cell>
-          <cell r="L12">
-            <v>829692.35</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>93629.41</v>
-          </cell>
-          <cell r="H13">
-            <v>99105.48</v>
-          </cell>
-          <cell r="K13">
-            <v>1088251.43</v>
-          </cell>
-          <cell r="L13">
-            <v>1100419.1299999999</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>35691.550000000003</v>
-          </cell>
-          <cell r="H14">
-            <v>45269.22</v>
-          </cell>
-          <cell r="K14">
-            <v>727723.41</v>
-          </cell>
-          <cell r="L14">
-            <v>933628.2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>273680.74</v>
-          </cell>
-          <cell r="H15">
-            <v>291314.90999999997</v>
-          </cell>
-          <cell r="K15">
-            <v>2944313.64</v>
-          </cell>
-          <cell r="L15">
-            <v>3127077.09</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="11">
-          <cell r="G11">
-            <v>39851.53</v>
-          </cell>
-          <cell r="H11">
-            <v>36345.699999999997</v>
-          </cell>
-          <cell r="K11">
-            <v>278309.18</v>
-          </cell>
-          <cell r="L11">
-            <v>259400.25</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>106217.04</v>
-          </cell>
-          <cell r="H12">
-            <v>107258.66</v>
-          </cell>
-          <cell r="K12">
-            <v>837052.04</v>
-          </cell>
-          <cell r="L12">
-            <v>819523.19</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>93883.45</v>
-          </cell>
-          <cell r="H13">
-            <v>100074.69</v>
-          </cell>
-          <cell r="K13">
-            <v>1112943.6399999999</v>
-          </cell>
-          <cell r="L13">
-            <v>1134283.93</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>33258.04</v>
-          </cell>
-          <cell r="H14">
-            <v>44901.48</v>
-          </cell>
-          <cell r="K14">
-            <v>730203.03</v>
-          </cell>
-          <cell r="L14">
-            <v>928038.88</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>273210.07</v>
-          </cell>
-          <cell r="H15">
-            <v>288580.53999999998</v>
-          </cell>
-          <cell r="K15">
-            <v>2958507.89</v>
-          </cell>
-          <cell r="L15">
-            <v>3141246.25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7">
-        <row r="11">
-          <cell r="G11">
-            <v>44005.27</v>
-          </cell>
-          <cell r="H11">
-            <v>35384.910000000003</v>
-          </cell>
-          <cell r="K11">
-            <v>286788.84999999998</v>
-          </cell>
-          <cell r="L11">
-            <v>262019.79</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>116254.83</v>
-          </cell>
-          <cell r="H12">
-            <v>111553.92</v>
-          </cell>
-          <cell r="K12">
-            <v>828366.26</v>
-          </cell>
-          <cell r="L12">
-            <v>802112.93</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>96441.01</v>
-          </cell>
-          <cell r="H13">
-            <v>103834.53</v>
-          </cell>
-          <cell r="K13">
-            <v>1127701.1200000001</v>
-          </cell>
-          <cell r="L13">
-            <v>1138428.71</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>37959.120000000003</v>
-          </cell>
-          <cell r="H14">
-            <v>50489.63</v>
-          </cell>
-          <cell r="K14">
-            <v>715764.97</v>
-          </cell>
-          <cell r="L14">
-            <v>922067.2</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>294660.23</v>
-          </cell>
-          <cell r="H15">
-            <v>301262.99</v>
-          </cell>
-          <cell r="K15">
-            <v>2958621.2</v>
-          </cell>
-          <cell r="L15">
-            <v>3124628.62</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="11">
-          <cell r="G11">
-            <v>53054.55</v>
-          </cell>
-          <cell r="H11">
-            <v>42716.800000000003</v>
-          </cell>
-          <cell r="K11">
-            <v>287723.53000000003</v>
-          </cell>
-          <cell r="L11">
-            <v>265125.59999999998</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>144427.16</v>
-          </cell>
-          <cell r="H12">
-            <v>137240.38</v>
-          </cell>
-          <cell r="K12">
-            <v>810457.99</v>
-          </cell>
-          <cell r="L12">
-            <v>784839.31</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>110926.81</v>
-          </cell>
-          <cell r="H13">
-            <v>121269.93</v>
-          </cell>
-          <cell r="K13">
-            <v>1115876.49</v>
-          </cell>
-          <cell r="L13">
-            <v>1125583.83</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>41625.620000000003</v>
-          </cell>
-          <cell r="H14">
-            <v>50156.44</v>
-          </cell>
-          <cell r="K14">
-            <v>701023.89</v>
-          </cell>
-          <cell r="L14">
-            <v>865551.76</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>350034.14</v>
-          </cell>
-          <cell r="H15">
-            <v>351383.54</v>
-          </cell>
-          <cell r="K15">
-            <v>2915081.91</v>
-          </cell>
-          <cell r="L15">
-            <v>3041100.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="11">
-          <cell r="G11">
-            <v>47080.76</v>
-          </cell>
-          <cell r="H11">
-            <v>42174.16</v>
-          </cell>
-          <cell r="K11">
-            <v>280550.73</v>
-          </cell>
-          <cell r="L11">
-            <v>258468.34</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>137561.85999999999</v>
-          </cell>
-          <cell r="H12">
-            <v>133239.70000000001</v>
-          </cell>
-          <cell r="K12">
-            <v>797849.92</v>
-          </cell>
-          <cell r="L12">
-            <v>778089.7</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>103331.79</v>
-          </cell>
-          <cell r="H13">
-            <v>114248.66</v>
-          </cell>
-          <cell r="K13">
-            <v>1096935.42</v>
-          </cell>
-          <cell r="L13">
-            <v>1113843.17</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>40916.300000000003</v>
-          </cell>
-          <cell r="H14">
-            <v>52757.599999999999</v>
-          </cell>
-          <cell r="K14">
-            <v>722102.27</v>
-          </cell>
-          <cell r="L14">
-            <v>881253.37</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>328890.71000000002</v>
-          </cell>
-          <cell r="H15">
-            <v>342420.12</v>
-          </cell>
-          <cell r="K15">
-            <v>2897438.34</v>
-          </cell>
-          <cell r="L15">
-            <v>3031654.57</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="11">
-          <cell r="G11">
-            <v>45657.21</v>
-          </cell>
-          <cell r="H11">
-            <v>47936.02</v>
-          </cell>
-          <cell r="K11">
-            <v>272663.26</v>
-          </cell>
-          <cell r="L11">
-            <v>265587.21999999997</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12">
-            <v>137265.88</v>
-          </cell>
-          <cell r="H12">
-            <v>128849.01</v>
-          </cell>
-          <cell r="K12">
-            <v>807150.39</v>
-          </cell>
-          <cell r="L12">
-            <v>782179.9</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13">
-            <v>107765.8</v>
-          </cell>
-          <cell r="H13">
-            <v>115806.85</v>
-          </cell>
-          <cell r="K13">
-            <v>1092269.0900000001</v>
-          </cell>
-          <cell r="L13">
-            <v>1116404.97</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14">
-            <v>44276.63</v>
-          </cell>
-          <cell r="H14">
-            <v>56083.38</v>
-          </cell>
-          <cell r="K14">
-            <v>716802.67</v>
-          </cell>
-          <cell r="L14">
-            <v>871023.65</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15">
-            <v>334965.52</v>
-          </cell>
-          <cell r="H15">
-            <v>348675.26</v>
-          </cell>
-          <cell r="K15">
-            <v>2888885.41</v>
-          </cell>
-          <cell r="L15">
-            <v>3035195.74</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1527,16 +834,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F150A0D7-5577-4BEA-A4C0-1815A7A8D6E5}">
-  <dimension ref="B1:L65"/>
+  <dimension ref="B1:L189"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="40" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="40"/>
+    <col min="1" max="1" width="5.7109375" style="31" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1586,28 +893,28 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1617,20 +924,20 @@
       <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="54">
+      <c r="B8" s="34"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="44">
         <v>1000</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
@@ -1644,16 +951,16 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -1692,27 +999,21 @@
         <v>2011</v>
       </c>
       <c r="D11" s="16">
-        <f>'[1] 2011'!$G$11/1000</f>
         <v>49.395949999999999</v>
       </c>
       <c r="E11" s="16">
-        <f>'[1] 2011'!$H$11/1000</f>
         <v>43.41377</v>
       </c>
       <c r="F11" s="16">
-        <f>E11+D11</f>
         <v>92.809719999999999</v>
       </c>
       <c r="G11" s="17">
-        <f>'[1] 2011'!$G$11/'[1] 2011'!$K$11*100</f>
         <v>16.374816331764272</v>
       </c>
       <c r="H11" s="17">
-        <f>'[1] 2011'!H11/'[1] 2011'!L11*100</f>
         <v>15.398537063837336</v>
       </c>
       <c r="I11" s="17">
-        <f>('[1] 2011'!$G$11+'[1] 2011'!$H$11)/('[1] 2011'!$K$11+'[1] 2011'!$L$11)*100</f>
         <v>15.903174342120485</v>
       </c>
       <c r="J11" s="9"/>
@@ -1726,27 +1027,21 @@
         <v>2011</v>
       </c>
       <c r="D12" s="16">
-        <f>'[1] 2011'!G12/1000</f>
         <v>101.92383</v>
       </c>
       <c r="E12" s="16">
-        <f>'[1] 2011'!H12/1000</f>
         <v>104.17531</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" ref="F12:F15" si="0">E12+D12</f>
         <v>206.09913999999998</v>
       </c>
       <c r="G12" s="17">
-        <f>'[1] 2011'!G12/'[1] 2011'!K12*100</f>
         <v>11.536175825357917</v>
       </c>
       <c r="H12" s="17">
-        <f>'[1] 2011'!H12/'[1] 2011'!L12*100</f>
         <v>11.835846259409939</v>
       </c>
       <c r="I12" s="17">
-        <f>('[1] 2011'!G12+'[1] 2011'!H12)/('[1] 2011'!K12+'[1] 2011'!L12)*100</f>
         <v>11.685726689953926</v>
       </c>
       <c r="J12" s="9"/>
@@ -1760,27 +1055,21 @@
         <v>2011</v>
       </c>
       <c r="D13" s="16">
-        <f>'[1] 2011'!G13/1000</f>
         <v>86.011289999999988</v>
       </c>
       <c r="E13" s="16">
-        <f>'[1] 2011'!H13/1000</f>
         <v>96.004519999999999</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="0"/>
         <v>182.01580999999999</v>
       </c>
       <c r="G13" s="17">
-        <f>'[1] 2011'!G13/'[1] 2011'!K13*100</f>
         <v>8.1601077357144955</v>
       </c>
       <c r="H13" s="17">
-        <f>'[1] 2011'!H13/'[1] 2011'!L13*100</f>
         <v>9.089852014992287</v>
       </c>
       <c r="I13" s="17">
-        <f>('[1] 2011'!G13+'[1] 2011'!H13)/('[1] 2011'!K13+'[1] 2011'!L13)*100</f>
         <v>8.6254483386351062</v>
       </c>
       <c r="J13" s="9"/>
@@ -1794,65 +1083,53 @@
         <v>2011</v>
       </c>
       <c r="D14" s="16">
-        <f>'[1] 2011'!G14/1000</f>
         <v>31.317979999999999</v>
       </c>
       <c r="E14" s="16">
-        <f>'[1] 2011'!H14/1000</f>
         <v>42.319459999999999</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="0"/>
         <v>73.637439999999998</v>
       </c>
       <c r="G14" s="17">
-        <f>'[1] 2011'!G14/'[1] 2011'!K14*100</f>
         <v>4.5506122254154278</v>
       </c>
       <c r="H14" s="17">
-        <f>'[1] 2011'!H14/'[1] 2011'!L14*100</f>
         <v>4.6011067847012033</v>
       </c>
       <c r="I14" s="17">
-        <f>('[1] 2011'!G14+'[1] 2011'!H14)/('[1] 2011'!K14+'[1] 2011'!L14)*100</f>
         <v>4.5794951597736251</v>
       </c>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="2:12" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:12" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="48">
         <v>2011</v>
       </c>
-      <c r="D15" s="19">
-        <f>'[1] 2011'!G15/1000</f>
+      <c r="D15" s="49">
         <v>268.64904999999999</v>
       </c>
-      <c r="E15" s="19">
-        <f>'[1] 2011'!H15/1000</f>
+      <c r="E15" s="49">
         <v>285.91305999999997</v>
       </c>
-      <c r="F15" s="19">
-        <f t="shared" si="0"/>
+      <c r="F15" s="49">
         <v>554.56210999999996</v>
       </c>
-      <c r="G15" s="20">
-        <f>'[1] 2011'!G15/'[1] 2011'!K15*100</f>
+      <c r="G15" s="50">
         <v>9.1769477795528598</v>
       </c>
-      <c r="H15" s="20">
-        <f>'[1] 2011'!H15/'[1] 2011'!L15*100</f>
+      <c r="H15" s="50">
         <v>9.1111938031645465</v>
       </c>
-      <c r="I15" s="20">
-        <f>('[1] 2011'!G15+'[1] 2011'!H15)/('[1] 2011'!K15+'[1] 2011'!L15)*100</f>
+      <c r="I15" s="50">
         <v>9.142929222004609</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1862,27 +1139,21 @@
         <v>2012</v>
       </c>
       <c r="D16" s="16">
-        <f>'[1] 2012'!G11/1000</f>
         <v>46.041519999999998</v>
       </c>
       <c r="E16" s="16">
-        <f>'[1] 2012'!H11/1000</f>
         <v>39.716989999999996</v>
       </c>
       <c r="F16" s="16">
-        <f>E16+D16</f>
         <v>85.758510000000001</v>
       </c>
       <c r="G16" s="17">
-        <f>'[1] 2012'!G11/'[1] 2012'!K$11*100</f>
         <v>15.829973271126754</v>
       </c>
       <c r="H16" s="17">
-        <f>'[1] 2012'!H11/'[1] 2012'!L11*100</f>
         <v>14.790328045812377</v>
       </c>
       <c r="I16" s="17">
-        <f>('[1] 2012'!G11+'[1] 2012'!H11)/('[1] 2012'!K11+'[1] 2012'!L11)*100</f>
         <v>15.330889096180472</v>
       </c>
       <c r="J16" s="9"/>
@@ -1896,27 +1167,21 @@
         <v>2012</v>
       </c>
       <c r="D17" s="16">
-        <f>'[1] 2012'!G12/1000</f>
         <v>101.17434</v>
       </c>
       <c r="E17" s="16">
-        <f>'[1] 2012'!H12/1000</f>
         <v>105.36062</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" ref="F17:F20" si="1">E17+D17</f>
         <v>206.53496000000001</v>
       </c>
       <c r="G17" s="17">
-        <f>'[1] 2012'!G12/'[1] 2012'!K$12*100</f>
         <v>11.689085286571911</v>
       </c>
       <c r="H17" s="17">
-        <f>'[1] 2012'!H12/'[1] 2012'!L12*100</f>
         <v>12.196344808456583</v>
       </c>
       <c r="I17" s="17">
-        <f>('[1] 2012'!G12+'[1] 2012'!H12)/('[1] 2012'!K12+'[1] 2012'!L12)*100</f>
         <v>11.942469406982308</v>
       </c>
       <c r="J17" s="9"/>
@@ -1930,27 +1195,21 @@
         <v>2012</v>
       </c>
       <c r="D18" s="16">
-        <f>'[1] 2012'!G13/1000</f>
         <v>93.794139999999999</v>
       </c>
       <c r="E18" s="16">
-        <f>'[1] 2012'!H13/1000</f>
         <v>98.775850000000005</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="1"/>
         <v>192.56999000000002</v>
       </c>
       <c r="G18" s="17">
-        <f>'[1] 2012'!G13/'[1] 2012'!K$13*100</f>
         <v>8.6753229662419784</v>
       </c>
       <c r="H18" s="17">
-        <f>'[1] 2012'!H13/'[1] 2012'!L13*100</f>
         <v>9.1959978691350237</v>
       </c>
       <c r="I18" s="17">
-        <f>('[1] 2012'!G13+'[1] 2012'!H13)/('[1] 2012'!K13+'[1] 2012'!L13)*100</f>
         <v>8.9348097603427039</v>
       </c>
       <c r="J18" s="9"/>
@@ -1964,65 +1223,53 @@
         <v>2012</v>
       </c>
       <c r="D19" s="16">
-        <f>'[1] 2012'!G14/1000</f>
         <v>30.689880000000002</v>
       </c>
       <c r="E19" s="16">
-        <f>'[1] 2012'!H14/1000</f>
         <v>45.083239999999996</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="1"/>
         <v>75.773120000000006</v>
       </c>
       <c r="G19" s="17">
-        <f>'[1] 2012'!G14/'[1] 2012'!K$14*100</f>
         <v>4.4626134481040376</v>
       </c>
       <c r="H19" s="17">
-        <f>'[1] 2012'!H14/'[1] 2012'!L14*100</f>
         <v>4.8949431553146123</v>
       </c>
       <c r="I19" s="17">
-        <f>('[1] 2012'!G14+'[1] 2012'!H14)/('[1] 2012'!K14+'[1] 2012'!L14)*100</f>
         <v>4.7101276080597216</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+    <row r="20" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="48">
         <v>2012</v>
       </c>
-      <c r="D20" s="19">
-        <f>'[1] 2012'!G15/1000</f>
+      <c r="D20" s="49">
         <v>271.69988000000001</v>
       </c>
-      <c r="E20" s="19">
-        <f>'[1] 2012'!H15/1000</f>
+      <c r="E20" s="49">
         <v>288.93670000000003</v>
       </c>
-      <c r="F20" s="19">
-        <f t="shared" si="1"/>
+      <c r="F20" s="49">
         <v>560.63658000000009</v>
       </c>
-      <c r="G20" s="20">
-        <f>'[1] 2012'!G15/'[1] 2012'!K$15*100</f>
+      <c r="G20" s="50">
         <v>9.2880375902806556</v>
       </c>
-      <c r="H20" s="20">
-        <f>'[1] 2012'!H15/'[1] 2012'!L15*100</f>
+      <c r="H20" s="50">
         <v>9.2384700720590036</v>
       </c>
-      <c r="I20" s="20">
-        <f>('[1] 2012'!G15+'[1] 2012'!H15)/('[1] 2012'!K15+'[1] 2012'!L15)*100</f>
+      <c r="I20" s="50">
         <v>9.2624256117437511</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
     </row>
     <row r="21" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
@@ -2032,27 +1279,21 @@
         <v>2013</v>
       </c>
       <c r="D21" s="16">
-        <f>'[1] 2013'!G11/1000</f>
         <v>43.561419999999998</v>
       </c>
       <c r="E21" s="16">
-        <f>'[1] 2013'!H11/1000</f>
         <v>42.883629999999997</v>
       </c>
       <c r="F21" s="16">
-        <f>E21+D21</f>
         <v>86.445049999999995</v>
       </c>
       <c r="G21" s="17">
-        <f>'[1] 2013'!G11/'[1] 2013'!K11*100</f>
         <v>15.410178444827608</v>
       </c>
       <c r="H21" s="17">
-        <f>'[1] 2013'!H11/'[1] 2013'!L11*100</f>
         <v>16.02359678447684</v>
       </c>
       <c r="I21" s="17">
-        <f>('[1] 2013'!G11+'[1] 2013'!H11)/('[1] 2013'!K11+'[1] 2013'!L11)*100</f>
         <v>15.708498768106965</v>
       </c>
       <c r="J21" s="9"/>
@@ -2066,27 +1307,21 @@
         <v>2013</v>
       </c>
       <c r="D22" s="16">
-        <f>'[1] 2013'!G12/1000</f>
         <v>109.29798</v>
       </c>
       <c r="E22" s="16">
-        <f>'[1] 2013'!H12/1000</f>
         <v>106.54449000000001</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" ref="F22:F25" si="2">E22+D22</f>
         <v>215.84246999999999</v>
       </c>
       <c r="G22" s="17">
-        <f>'[1] 2013'!G12/'[1] 2013'!K12*100</f>
         <v>12.743843612869247</v>
       </c>
       <c r="H22" s="17">
-        <f>'[1] 2013'!H12/'[1] 2013'!L12*100</f>
         <v>12.6541880616247</v>
       </c>
       <c r="I22" s="17">
-        <f>('[1] 2013'!G12+'[1] 2013'!H12)/('[1] 2013'!K12+'[1] 2013'!L12)*100</f>
         <v>12.699429478305122</v>
       </c>
       <c r="J22" s="9"/>
@@ -2100,27 +1335,21 @@
         <v>2013</v>
       </c>
       <c r="D23" s="16">
-        <f>'[1] 2013'!G13/1000</f>
         <v>95.905460000000005</v>
       </c>
       <c r="E23" s="16">
-        <f>'[1] 2013'!H13/1000</f>
         <v>100.40627000000001</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="2"/>
         <v>196.31173000000001</v>
       </c>
       <c r="G23" s="17">
-        <f>'[1] 2013'!G13/'[1] 2013'!K13*100</f>
         <v>8.8746589454064946</v>
       </c>
       <c r="H23" s="17">
-        <f>'[1] 2013'!H13/'[1] 2013'!L13*100</f>
         <v>9.1661793558104687</v>
       </c>
       <c r="I23" s="17">
-        <f>('[1] 2013'!G13+'[1] 2013'!H13)/('[1] 2013'!K13+'[1] 2013'!L13)*100</f>
         <v>9.0214060118099653</v>
       </c>
       <c r="J23" s="9"/>
@@ -2134,65 +1363,53 @@
         <v>2013</v>
       </c>
       <c r="D24" s="16">
-        <f>'[1] 2013'!G14/1000</f>
         <v>32.456249999999997</v>
       </c>
       <c r="E24" s="16">
-        <f>'[1] 2013'!H14/1000</f>
         <v>46.073459999999997</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" si="2"/>
         <v>78.529709999999994</v>
       </c>
       <c r="G24" s="17">
-        <f>'[1] 2013'!G14/'[1] 2013'!K14*100</f>
         <v>4.5794359596648713</v>
       </c>
       <c r="H24" s="17">
-        <f>'[1] 2013'!H14/'[1] 2013'!L14*100</f>
         <v>4.9825264553691939</v>
       </c>
       <c r="I24" s="17">
-        <f>('[1] 2013'!G14+'[1] 2013'!H14)/('[1] 2013'!K14+'[1] 2013'!L14)*100</f>
         <v>4.8076280791470127</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+    <row r="25" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="48">
         <v>2013</v>
       </c>
-      <c r="D25" s="19">
-        <f>'[1] 2013'!G15/1000</f>
+      <c r="D25" s="49">
         <v>281.22111000000001</v>
       </c>
-      <c r="E25" s="19">
-        <f>'[1] 2013'!H15/1000</f>
+      <c r="E25" s="49">
         <v>295.90785999999997</v>
       </c>
-      <c r="F25" s="19">
-        <f t="shared" si="2"/>
+      <c r="F25" s="49">
         <v>577.12896999999998</v>
       </c>
-      <c r="G25" s="20">
-        <f>'[1] 2013'!G15/'[1] 2013'!K15*100</f>
+      <c r="G25" s="50">
         <v>9.5988478724704596</v>
       </c>
-      <c r="H25" s="20">
-        <f>'[1] 2013'!H15/'[1] 2013'!L15*100</f>
+      <c r="H25" s="50">
         <v>9.4548366194110027</v>
       </c>
-      <c r="I25" s="20">
-        <f>('[1] 2013'!G15+'[1] 2013'!H15)/('[1] 2013'!K15+'[1] 2013'!L15)*100</f>
+      <c r="I25" s="50">
         <v>9.5244660755135637</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
     </row>
     <row r="26" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -2202,27 +1419,21 @@
         <v>2014</v>
       </c>
       <c r="D26" s="16">
-        <f>'[1] 2014'!G11/1000</f>
         <v>36.484699999999997</v>
       </c>
       <c r="E26" s="16">
-        <f>'[1] 2014'!H11/1000</f>
         <v>37.825530000000001</v>
       </c>
       <c r="F26" s="16">
-        <f>E26+D26</f>
         <v>74.31022999999999</v>
       </c>
       <c r="G26" s="17">
-        <f>'[1] 2014'!G11/'[1] 2014'!K11*100</f>
         <v>12.953367599713259</v>
       </c>
-      <c r="H26" s="23">
-        <f>'[1] 2014'!H11/'[1] 2014'!L11*100</f>
+      <c r="H26" s="18">
         <v>14.363902403236123</v>
       </c>
       <c r="I26" s="17">
-        <f>('[1] 2014'!G11+'[1] 2014'!H11)/('[1] 2014'!K11+'[1] 2014'!L11)*100</f>
         <v>13.634921849717568</v>
       </c>
       <c r="J26" s="9"/>
@@ -2236,27 +1447,21 @@
         <v>2014</v>
       </c>
       <c r="D27" s="16">
-        <f>'[1] 2014'!G12/1000</f>
         <v>107.87508</v>
       </c>
       <c r="E27" s="16">
-        <f>'[1] 2014'!H12/1000</f>
         <v>109.11467999999999</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" ref="F27:F30" si="3">E27+D27</f>
         <v>216.98975999999999</v>
       </c>
       <c r="G27" s="17">
-        <f>'[1] 2014'!G12/'[1] 2014'!K12*100</f>
         <v>12.740997185585199</v>
       </c>
-      <c r="H27" s="23">
-        <f>'[1] 2014'!H12/'[1] 2014'!L12*100</f>
+      <c r="H27" s="18">
         <v>13.151221654628973</v>
       </c>
       <c r="I27" s="17">
-        <f>('[1] 2014'!G12+'[1] 2014'!H12)/('[1] 2014'!K12+'[1] 2014'!L12)*100</f>
         <v>12.944031274732581</v>
       </c>
       <c r="J27" s="9"/>
@@ -2270,27 +1475,21 @@
         <v>2014</v>
       </c>
       <c r="D28" s="16">
-        <f>'[1] 2014'!G13/1000</f>
         <v>93.629410000000007</v>
       </c>
       <c r="E28" s="16">
-        <f>'[1] 2014'!H13/1000</f>
         <v>99.10548</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="3"/>
         <v>192.73489000000001</v>
       </c>
       <c r="G28" s="17">
-        <f>'[1] 2014'!G13/'[1] 2014'!K13*100</f>
         <v>8.6036560503302084</v>
       </c>
-      <c r="H28" s="23">
-        <f>'[1] 2014'!H13/'[1] 2014'!L13*100</f>
+      <c r="H28" s="18">
         <v>9.0061574992793894</v>
       </c>
       <c r="I28" s="17">
-        <f>('[1] 2014'!G13+'[1] 2014'!H13)/('[1] 2014'!K13+'[1] 2014'!L13)*100</f>
         <v>8.8060256085319679</v>
       </c>
       <c r="J28" s="9"/>
@@ -2304,65 +1503,53 @@
         <v>2014</v>
       </c>
       <c r="D29" s="16">
-        <f>'[1] 2014'!G14/1000</f>
         <v>35.691549999999999</v>
       </c>
       <c r="E29" s="16">
-        <f>'[1] 2014'!H14/1000</f>
         <v>45.269220000000004</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="3"/>
         <v>80.960769999999997</v>
       </c>
       <c r="G29" s="17">
-        <f>'[1] 2014'!G14/'[1] 2014'!K14*100</f>
         <v>4.9045488312654397</v>
       </c>
-      <c r="H29" s="23">
-        <f>'[1] 2014'!H14/'[1] 2014'!L14*100</f>
+      <c r="H29" s="18">
         <v>4.8487417153852039</v>
       </c>
       <c r="I29" s="17">
-        <f>('[1] 2014'!G14+'[1] 2014'!H14)/('[1] 2014'!K14+'[1] 2014'!L14)*100</f>
         <v>4.8731869589002903</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="48">
         <v>2014</v>
       </c>
-      <c r="D30" s="19">
-        <f>'[1] 2014'!G15/1000</f>
+      <c r="D30" s="49">
         <v>273.68074000000001</v>
       </c>
-      <c r="E30" s="19">
-        <f>'[1] 2014'!H15/1000</f>
+      <c r="E30" s="49">
         <v>291.31491</v>
       </c>
-      <c r="F30" s="19">
-        <f t="shared" si="3"/>
+      <c r="F30" s="49">
         <v>564.99565000000007</v>
       </c>
-      <c r="G30" s="20">
-        <f>'[1] 2014'!G15/'[1] 2014'!K15*100</f>
+      <c r="G30" s="50">
         <v>9.2952305176292285</v>
       </c>
-      <c r="H30" s="24">
-        <f>'[1] 2014'!H15/'[1] 2014'!L15*100</f>
+      <c r="H30" s="53">
         <v>9.3158851418018607</v>
       </c>
-      <c r="I30" s="20">
-        <f>('[1] 2014'!G15+'[1] 2014'!H15)/('[1] 2014'!K15+'[1] 2014'!L15)*100</f>
+      <c r="I30" s="50">
         <v>9.3058687066249792</v>
       </c>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
     </row>
     <row r="31" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -2372,27 +1559,21 @@
         <v>2015</v>
       </c>
       <c r="D31" s="16">
-        <f>'[1] 2015'!G11/1000</f>
         <v>39.851529999999997</v>
       </c>
       <c r="E31" s="16">
-        <f>'[1] 2015'!H11/1000</f>
         <v>36.345699999999994</v>
       </c>
       <c r="F31" s="16">
-        <f>E31+D31</f>
         <v>76.19722999999999</v>
       </c>
       <c r="G31" s="17">
-        <f>'[1] 2015'!G11/'[1] 2015'!K11*100</f>
         <v>14.319157564260006</v>
       </c>
       <c r="H31" s="17">
-        <f>'[1] 2015'!H11/'[1] 2015'!L11*100</f>
         <v>14.011435995146496</v>
       </c>
       <c r="I31" s="17">
-        <f>('[1] 2015'!G11+'[1] 2015'!H11)/('[1] 2015'!K11+'[1] 2015'!L11)*100</f>
         <v>14.17070740232322</v>
       </c>
       <c r="J31" s="9"/>
@@ -2406,27 +1587,21 @@
         <v>2015</v>
       </c>
       <c r="D32" s="16">
-        <f>'[1] 2015'!G12/1000</f>
         <v>106.21704</v>
       </c>
       <c r="E32" s="16">
-        <f>'[1] 2015'!H12/1000</f>
         <v>107.25866000000001</v>
       </c>
       <c r="F32" s="16">
-        <f t="shared" ref="F32:F35" si="4">E32+D32</f>
         <v>213.47570000000002</v>
       </c>
       <c r="G32" s="17">
-        <f>'[1] 2015'!G12/'[1] 2015'!K12*100</f>
         <v>12.6894189278841</v>
       </c>
       <c r="H32" s="17">
-        <f>'[1] 2015'!H12/'[1] 2015'!L12*100</f>
         <v>13.087934705056975</v>
       </c>
       <c r="I32" s="17">
-        <f>('[1] 2015'!G12+'[1] 2015'!H12)/('[1] 2015'!K12+'[1] 2015'!L12)*100</f>
         <v>12.886568393274841</v>
       </c>
       <c r="J32" s="9"/>
@@ -2440,27 +1615,21 @@
         <v>2015</v>
       </c>
       <c r="D33" s="16">
-        <f>'[1] 2015'!G13/1000</f>
         <v>93.883449999999996</v>
       </c>
       <c r="E33" s="16">
-        <f>'[1] 2015'!H13/1000</f>
         <v>100.07469</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" si="4"/>
         <v>193.95814000000001</v>
       </c>
       <c r="G33" s="17">
-        <f>'[1] 2015'!G13/'[1] 2015'!K13*100</f>
         <v>8.4355978708858963</v>
       </c>
       <c r="H33" s="17">
-        <f>'[1] 2015'!H13/'[1] 2015'!L13*100</f>
         <v>8.8227195460663896</v>
       </c>
       <c r="I33" s="17">
-        <f>('[1] 2015'!G13+'[1] 2015'!H13)/('[1] 2015'!K13+'[1] 2015'!L13)*100</f>
         <v>8.6309968153336616</v>
       </c>
       <c r="J33" s="9"/>
@@ -2474,65 +1643,53 @@
         <v>2015</v>
       </c>
       <c r="D34" s="16">
-        <f>'[1] 2015'!G14/1000</f>
         <v>33.258040000000001</v>
       </c>
       <c r="E34" s="16">
-        <f>'[1] 2015'!H14/1000</f>
         <v>44.901480000000006</v>
       </c>
       <c r="F34" s="16">
-        <f t="shared" si="4"/>
         <v>78.159520000000015</v>
       </c>
       <c r="G34" s="17">
-        <f>'[1] 2015'!G14/'[1] 2015'!K14*100</f>
         <v>4.5546291419798681</v>
       </c>
       <c r="H34" s="17">
-        <f>'[1] 2015'!H14/'[1] 2015'!L14*100</f>
         <v>4.8383188428484809</v>
       </c>
       <c r="I34" s="17">
-        <f>('[1] 2015'!G14+'[1] 2015'!H14)/('[1] 2015'!K14+'[1] 2015'!L14)*100</f>
         <v>4.7133967323259851</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="48">
         <v>2015</v>
       </c>
-      <c r="D35" s="19">
-        <f>'[1] 2015'!G15/1000</f>
+      <c r="D35" s="49">
         <v>273.21007000000003</v>
       </c>
-      <c r="E35" s="19">
-        <f>'[1] 2015'!H15/1000</f>
+      <c r="E35" s="49">
         <v>288.58053999999998</v>
       </c>
-      <c r="F35" s="19">
-        <f t="shared" si="4"/>
+      <c r="F35" s="49">
         <v>561.79061000000002</v>
       </c>
-      <c r="G35" s="20">
-        <f>'[1] 2015'!G15/'[1] 2015'!K15*100</f>
+      <c r="G35" s="50">
         <v>9.2347250762275301</v>
       </c>
-      <c r="H35" s="20">
-        <f>'[1] 2015'!H15/'[1] 2015'!L15*100</f>
+      <c r="H35" s="50">
         <v>9.1868168565262902</v>
       </c>
-      <c r="I35" s="20">
-        <f>('[1] 2015'!G15+'[1] 2015'!H15)/('[1] 2015'!K15+'[1] 2015'!L15)*100</f>
+      <c r="I35" s="50">
         <v>9.2100533415925501</v>
       </c>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
     </row>
     <row r="36" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
@@ -2542,27 +1699,21 @@
         <v>2016</v>
       </c>
       <c r="D36" s="16">
-        <f>'[1] 2016'!G11/1000</f>
         <v>44.005269999999996</v>
       </c>
       <c r="E36" s="16">
-        <f>'[1] 2016'!H11/1000</f>
         <v>35.384910000000005</v>
       </c>
       <c r="F36" s="16">
-        <f>E36+D36</f>
         <v>79.390180000000001</v>
       </c>
       <c r="G36" s="17">
-        <f>'[1] 2016'!G11/'[1] 2016'!K11*100</f>
         <v>15.344135589650715</v>
       </c>
       <c r="H36" s="17">
-        <f>'[1] 2016'!H11/'[1] 2016'!L11*100</f>
         <v>13.504670773150378</v>
       </c>
       <c r="I36" s="17">
-        <f>('[1] 2016'!G11+'[1] 2016'!H11)/('[1] 2016'!K11+'[1] 2016'!L11)*100</f>
         <v>14.465912927318344</v>
       </c>
       <c r="J36" s="9"/>
@@ -2576,27 +1727,21 @@
         <v>2016</v>
       </c>
       <c r="D37" s="16">
-        <f>'[1] 2016'!G12/1000</f>
         <v>116.25483</v>
       </c>
       <c r="E37" s="16">
-        <f>'[1] 2016'!H12/1000</f>
         <v>111.55392000000001</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" ref="F37:F40" si="5">E37+D37</f>
         <v>227.80875</v>
       </c>
       <c r="G37" s="17">
-        <f>'[1] 2016'!G12/'[1] 2016'!K12*100</f>
         <v>14.034230462259533</v>
       </c>
       <c r="H37" s="17">
-        <f>'[1] 2016'!H12/'[1] 2016'!L12*100</f>
         <v>13.907508011371913</v>
       </c>
       <c r="I37" s="17">
-        <f>('[1] 2016'!G12+'[1] 2016'!H12)/('[1] 2016'!K12+'[1] 2016'!L12)*100</f>
         <v>13.971889454167153</v>
       </c>
       <c r="J37" s="9"/>
@@ -2610,27 +1755,21 @@
         <v>2016</v>
       </c>
       <c r="D38" s="16">
-        <f>'[1] 2016'!G13/1000</f>
         <v>96.441009999999991</v>
       </c>
       <c r="E38" s="16">
-        <f>'[1] 2016'!H13/1000</f>
         <v>103.83453</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="5"/>
         <v>200.27553999999998</v>
       </c>
       <c r="G38" s="17">
-        <f>'[1] 2016'!G13/'[1] 2016'!K13*100</f>
         <v>8.5520009060556745</v>
       </c>
       <c r="H38" s="17">
-        <f>'[1] 2016'!H13/'[1] 2016'!L13*100</f>
         <v>9.1208636156057601</v>
       </c>
       <c r="I38" s="17">
-        <f>('[1] 2016'!G13+'[1] 2016'!H13)/('[1] 2016'!K13+'[1] 2016'!L13)*100</f>
         <v>8.8377787251492101</v>
       </c>
       <c r="J38" s="9"/>
@@ -2644,65 +1783,53 @@
         <v>2016</v>
       </c>
       <c r="D39" s="16">
-        <f>'[1] 2016'!G14/1000</f>
         <v>37.959120000000006</v>
       </c>
       <c r="E39" s="16">
-        <f>'[1] 2016'!H14/1000</f>
         <v>50.489629999999998</v>
       </c>
       <c r="F39" s="16">
-        <f t="shared" si="5"/>
         <v>88.448750000000004</v>
       </c>
       <c r="G39" s="17">
-        <f>'[1] 2016'!G14/'[1] 2016'!K14*100</f>
         <v>5.3032939010692299</v>
       </c>
       <c r="H39" s="17">
-        <f>'[1] 2016'!H14/'[1] 2016'!L14*100</f>
         <v>5.4756996019379063</v>
       </c>
       <c r="I39" s="17">
-        <f>('[1] 2016'!G14+'[1] 2016'!H14)/('[1] 2016'!K14+'[1] 2016'!L14)*100</f>
         <v>5.4003549093800007</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
+    <row r="40" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="48">
         <v>2016</v>
       </c>
-      <c r="D40" s="19">
-        <f>'[1] 2016'!G15/1000</f>
+      <c r="D40" s="49">
         <v>294.66022999999996</v>
       </c>
-      <c r="E40" s="19">
-        <f>'[1] 2016'!H15/1000</f>
+      <c r="E40" s="49">
         <v>301.26299</v>
       </c>
-      <c r="F40" s="19">
-        <f t="shared" si="5"/>
+      <c r="F40" s="49">
         <v>595.9232199999999</v>
       </c>
-      <c r="G40" s="20">
-        <f>'[1] 2016'!G15/'[1] 2016'!K15*100</f>
+      <c r="G40" s="50">
         <v>9.9593766853289623</v>
       </c>
-      <c r="H40" s="20">
-        <f>'[1] 2016'!H15/'[1] 2016'!L15*100</f>
+      <c r="H40" s="50">
         <v>9.6415614985949905</v>
       </c>
-      <c r="I40" s="20">
-        <f>('[1] 2016'!G15+'[1] 2016'!H15)/('[1] 2016'!K15+'[1] 2016'!L15)*100</f>
+      <c r="I40" s="50">
         <v>9.7961326204420125</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
     </row>
     <row r="41" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
@@ -2712,27 +1839,21 @@
         <v>2017</v>
       </c>
       <c r="D41" s="16">
-        <f>'[1] 2017'!G11/1000</f>
         <v>53.054550000000006</v>
       </c>
       <c r="E41" s="16">
-        <f>'[1] 2017'!H11/1000</f>
         <v>42.716800000000006</v>
       </c>
       <c r="F41" s="16">
-        <f>E41+D41</f>
         <v>95.771350000000012</v>
       </c>
       <c r="G41" s="17">
-        <f>'[1] 2017'!G11/'[1] 2017'!K11*100</f>
         <v>18.439419952897143</v>
       </c>
       <c r="H41" s="17">
-        <f>'[1] 2017'!H11/'[1] 2017'!L11*100</f>
         <v>16.111910732120929</v>
       </c>
       <c r="I41" s="17">
-        <f>('[1] 2017'!G11+'[1] 2017'!H11)/('[1] 2017'!K11+'[1] 2017'!L11)*100</f>
         <v>17.323234279124218</v>
       </c>
       <c r="J41" s="9"/>
@@ -2746,27 +1867,21 @@
         <v>2017</v>
       </c>
       <c r="D42" s="16">
-        <f>'[1] 2017'!G12/1000</f>
         <v>144.42716000000001</v>
       </c>
       <c r="E42" s="16">
-        <f>'[1] 2017'!H12/1000</f>
         <v>137.24038000000002</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" ref="F42:F45" si="6">E42+D42</f>
         <v>281.66754000000003</v>
       </c>
       <c r="G42" s="17">
-        <f>'[1] 2017'!G12/'[1] 2017'!K12*100</f>
         <v>17.820437552845892</v>
       </c>
       <c r="H42" s="17">
-        <f>'[1] 2017'!H12/'[1] 2017'!L12*100</f>
         <v>17.486430438862701</v>
       </c>
       <c r="I42" s="17">
-        <f>('[1] 2017'!G12+'[1] 2017'!H12)/('[1] 2017'!K12+'[1] 2017'!L12)*100</f>
         <v>17.656115885108061</v>
       </c>
       <c r="J42" s="9"/>
@@ -2780,27 +1895,21 @@
         <v>2017</v>
       </c>
       <c r="D43" s="16">
-        <f>'[1] 2017'!G13/1000</f>
         <v>110.92681</v>
       </c>
       <c r="E43" s="16">
-        <f>'[1] 2017'!H13/1000</f>
         <v>121.26992999999999</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="6"/>
         <v>232.19673999999998</v>
       </c>
       <c r="G43" s="17">
-        <f>'[1] 2017'!G13/'[1] 2017'!K13*100</f>
         <v>9.9407784816758706</v>
       </c>
       <c r="H43" s="17">
-        <f>'[1] 2017'!H13/'[1] 2017'!L13*100</f>
         <v>10.773958080048111</v>
       </c>
       <c r="I43" s="17">
-        <f>('[1] 2017'!G13+'[1] 2017'!H13)/('[1] 2017'!K13+'[1] 2017'!L13)*100</f>
         <v>10.359172452359093</v>
       </c>
       <c r="J43" s="9"/>
@@ -2814,65 +1923,53 @@
         <v>2017</v>
       </c>
       <c r="D44" s="16">
-        <f>'[1] 2017'!G14/1000</f>
         <v>41.625620000000005</v>
       </c>
       <c r="E44" s="16">
-        <f>'[1] 2017'!H14/1000</f>
         <v>50.156440000000003</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="6"/>
         <v>91.782060000000001</v>
       </c>
       <c r="G44" s="17">
-        <f>'[1] 2017'!G14/'[1] 2017'!K14*100</f>
         <v>5.9378318761718667</v>
       </c>
       <c r="H44" s="17">
-        <f>'[1] 2017'!H14/'[1] 2017'!L14*100</f>
         <v>5.7947360652354281</v>
       </c>
       <c r="I44" s="17">
-        <f>('[1] 2017'!G14+'[1] 2017'!H14)/('[1] 2017'!K14+'[1] 2017'!L14)*100</f>
         <v>5.8587697312925808</v>
       </c>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+    <row r="45" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="48">
         <v>2017</v>
       </c>
-      <c r="D45" s="19">
-        <f>'[1] 2017'!G15/1000</f>
+      <c r="D45" s="49">
         <v>350.03414000000004</v>
       </c>
-      <c r="E45" s="19">
-        <f>'[1] 2017'!H15/1000</f>
+      <c r="E45" s="49">
         <v>351.38353999999998</v>
       </c>
-      <c r="F45" s="19">
-        <f t="shared" si="6"/>
+      <c r="F45" s="49">
         <v>701.41768000000002</v>
       </c>
-      <c r="G45" s="20">
-        <f>'[1] 2017'!G15/'[1] 2017'!K15*100</f>
+      <c r="G45" s="50">
         <v>12.007694836952282</v>
       </c>
-      <c r="H45" s="20">
-        <f>'[1] 2017'!H15/'[1] 2017'!L15*100</f>
+      <c r="H45" s="50">
         <v>11.554486278898048</v>
       </c>
-      <c r="I45" s="20">
-        <f>('[1] 2017'!G15+'[1] 2017'!H15)/('[1] 2017'!K15+'[1] 2017'!L15)*100</f>
+      <c r="I45" s="50">
         <v>11.776296152756677</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
     </row>
     <row r="46" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
@@ -2882,27 +1979,21 @@
         <v>2018</v>
       </c>
       <c r="D46" s="16">
-        <f>'[1] 2018'!G11/1000</f>
         <v>47.080760000000005</v>
       </c>
       <c r="E46" s="16">
-        <f>'[1] 2018'!H11/1000</f>
         <v>42.174160000000001</v>
       </c>
       <c r="F46" s="16">
-        <f>E46+D46</f>
         <v>89.254919999999998</v>
       </c>
       <c r="G46" s="17">
-        <f>'[1] 2018'!G11/'[1] 2018'!K11*100</f>
         <v>16.781549632752697</v>
       </c>
       <c r="H46" s="17">
-        <f>'[1] 2018'!H11/'[1] 2018'!L11*100</f>
         <v>16.316953944920296</v>
       </c>
       <c r="I46" s="17">
-        <f>('[1] 2018'!G11+'[1] 2018'!H11)/('[1] 2018'!K11+'[1] 2018'!L11)*100</f>
         <v>16.558768505166249</v>
       </c>
       <c r="J46" s="9"/>
@@ -2916,27 +2007,21 @@
         <v>2018</v>
       </c>
       <c r="D47" s="16">
-        <f>'[1] 2018'!G12/1000</f>
         <v>137.56186</v>
       </c>
       <c r="E47" s="16">
-        <f>'[1] 2018'!H12/1000</f>
         <v>133.2397</v>
       </c>
       <c r="F47" s="16">
-        <f t="shared" ref="F47:F50" si="7">E47+D47</f>
         <v>270.80155999999999</v>
       </c>
       <c r="G47" s="17">
-        <f>'[1] 2018'!G12/'[1] 2018'!K12*100</f>
         <v>17.241570946074667</v>
       </c>
       <c r="H47" s="17">
-        <f>'[1] 2018'!H12/'[1] 2018'!L12*100</f>
         <v>17.123951133140565</v>
       </c>
       <c r="I47" s="17">
-        <f>('[1] 2018'!G12+'[1] 2018'!H12)/('[1] 2018'!K12+'[1] 2018'!L12)*100</f>
         <v>17.183498438855164</v>
       </c>
       <c r="J47" s="9"/>
@@ -2950,27 +2035,21 @@
         <v>2018</v>
       </c>
       <c r="D48" s="16">
-        <f>'[1] 2018'!G13/1000</f>
         <v>103.33179</v>
       </c>
       <c r="E48" s="16">
-        <f>'[1] 2018'!H13/1000</f>
         <v>114.24866</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="7"/>
         <v>217.58044999999998</v>
       </c>
       <c r="G48" s="17">
-        <f>'[1] 2018'!G13/'[1] 2018'!K13*100</f>
         <v>9.4200431598790022</v>
       </c>
       <c r="H48" s="17">
-        <f>'[1] 2018'!H13/'[1] 2018'!L13*100</f>
         <v>10.257158554915771</v>
       </c>
       <c r="I48" s="17">
-        <f>('[1] 2018'!G13+'[1] 2018'!H13)/('[1] 2018'!K13+'[1] 2018'!L13)*100</f>
         <v>9.8418019327751871</v>
       </c>
       <c r="J48" s="9"/>
@@ -2984,320 +2063,403 @@
         <v>2018</v>
       </c>
       <c r="D49" s="16">
-        <f>'[1] 2018'!G14/1000</f>
         <v>40.9163</v>
       </c>
       <c r="E49" s="16">
-        <f>'[1] 2018'!H14/1000</f>
         <v>52.757599999999996</v>
       </c>
       <c r="F49" s="16">
-        <f t="shared" si="7"/>
         <v>93.673900000000003</v>
       </c>
       <c r="G49" s="17">
-        <f>'[1] 2018'!G14/'[1] 2018'!K14*100</f>
         <v>5.6662749446833898</v>
       </c>
       <c r="H49" s="17">
-        <f>'[1] 2018'!H14/'[1] 2018'!L14*100</f>
         <v>5.9866551205358798</v>
       </c>
       <c r="I49" s="17">
-        <f>('[1] 2018'!G14+'[1] 2018'!H14)/('[1] 2018'!K14+'[1] 2018'!L14)*100</f>
         <v>5.8423657024713487</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="2:11" s="22" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+    <row r="50" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="48">
         <v>2018</v>
       </c>
-      <c r="D50" s="19">
-        <f>'[1] 2018'!G15/1000</f>
+      <c r="D50" s="49">
         <v>328.89071000000001</v>
       </c>
-      <c r="E50" s="19">
-        <f>'[1] 2018'!H15/1000</f>
+      <c r="E50" s="49">
         <v>342.42012</v>
       </c>
-      <c r="F50" s="19">
-        <f t="shared" si="7"/>
+      <c r="F50" s="49">
         <v>671.31083000000001</v>
       </c>
-      <c r="G50" s="20">
-        <f>'[1] 2018'!G15/'[1] 2018'!K15*100</f>
+      <c r="G50" s="50">
         <v>11.351085731819232</v>
       </c>
-      <c r="H50" s="20">
-        <f>'[1] 2018'!H15/'[1] 2018'!L15*100</f>
+      <c r="H50" s="50">
         <v>11.294826375948235</v>
       </c>
-      <c r="I50" s="20">
-        <f>('[1] 2018'!G15+'[1] 2018'!H15)/('[1] 2018'!K15+'[1] 2018'!L15)*100</f>
+      <c r="I50" s="50">
         <v>11.322319285430122</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
     </row>
     <row r="51" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="19">
         <v>2019</v>
       </c>
-      <c r="D51" s="26">
-        <f>'[1] 2019'!G11/1000</f>
+      <c r="D51" s="20">
         <v>45.657209999999999</v>
       </c>
-      <c r="E51" s="26">
-        <f>'[1] 2019'!H11/1000</f>
+      <c r="E51" s="20">
         <v>47.936019999999999</v>
       </c>
-      <c r="F51" s="26">
-        <f>E51+D51</f>
+      <c r="F51" s="20">
         <v>93.593230000000005</v>
       </c>
-      <c r="G51" s="23">
-        <f>'[1] 2019'!G11/'[1] 2019'!K11*100</f>
+      <c r="G51" s="18">
         <v>16.744907252997706</v>
       </c>
-      <c r="H51" s="23">
-        <f>'[1] 2019'!H11/'[1] 2019'!L11*100</f>
+      <c r="H51" s="18">
         <v>18.049068776728038</v>
       </c>
-      <c r="I51" s="23">
-        <f>('[1] 2019'!G11+'[1] 2019'!H11)/('[1] 2019'!K11+'[1] 2019'!L11)*100</f>
+      <c r="I51" s="18">
         <v>17.388415519852394</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
     </row>
     <row r="52" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="19">
         <v>2019</v>
       </c>
-      <c r="D52" s="26">
-        <f>'[1] 2019'!G12/1000</f>
+      <c r="D52" s="20">
         <v>137.26588000000001</v>
       </c>
-      <c r="E52" s="26">
-        <f>'[1] 2019'!H12/1000</f>
+      <c r="E52" s="20">
         <v>128.84900999999999</v>
       </c>
-      <c r="F52" s="26">
-        <f t="shared" ref="F52:F55" si="8">E52+D52</f>
+      <c r="F52" s="20">
         <v>266.11489</v>
       </c>
-      <c r="G52" s="23">
-        <f>'[1] 2019'!G12/'[1] 2019'!K12*100</f>
+      <c r="G52" s="18">
         <v>17.006233497576577</v>
       </c>
-      <c r="H52" s="23">
-        <f>'[1] 2019'!H12/'[1] 2019'!L12*100</f>
+      <c r="H52" s="18">
         <v>16.473065850963444</v>
       </c>
-      <c r="I52" s="23">
-        <f>('[1] 2019'!G12+'[1] 2019'!H12)/('[1] 2019'!K12+'[1] 2019'!L12)*100</f>
+      <c r="I52" s="18">
         <v>16.743838060243601</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
     </row>
     <row r="53" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="19">
         <v>2019</v>
       </c>
-      <c r="D53" s="26">
-        <f>'[1] 2019'!G13/1000</f>
+      <c r="D53" s="20">
         <v>107.7658</v>
       </c>
-      <c r="E53" s="26">
-        <f>'[1] 2019'!H13/1000</f>
+      <c r="E53" s="20">
         <v>115.80685000000001</v>
       </c>
-      <c r="F53" s="26">
-        <f t="shared" si="8"/>
+      <c r="F53" s="20">
         <v>223.57265000000001</v>
       </c>
-      <c r="G53" s="23">
-        <f>'[1] 2019'!G13/'[1] 2019'!K13*100</f>
+      <c r="G53" s="18">
         <v>9.8662317726120019</v>
       </c>
-      <c r="H53" s="23">
-        <f>'[1] 2019'!H13/'[1] 2019'!L13*100</f>
+      <c r="H53" s="18">
         <v>10.373193698698781</v>
       </c>
-      <c r="I53" s="23">
-        <f>('[1] 2019'!G13+'[1] 2019'!H13)/('[1] 2019'!K13+'[1] 2019'!L13)*100</f>
+      <c r="I53" s="18">
         <v>10.122482717074153</v>
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
     </row>
     <row r="54" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="25">
+      <c r="C54" s="19">
         <v>2019</v>
       </c>
-      <c r="D54" s="26">
-        <f>'[1] 2019'!G14/1000</f>
+      <c r="D54" s="20">
         <v>44.276629999999997</v>
       </c>
-      <c r="E54" s="26">
-        <f>'[1] 2019'!H14/1000</f>
+      <c r="E54" s="20">
         <v>56.083379999999998</v>
       </c>
-      <c r="F54" s="26">
-        <f t="shared" si="8"/>
+      <c r="F54" s="20">
         <v>100.36000999999999</v>
       </c>
-      <c r="G54" s="23">
-        <f>'[1] 2019'!G14/'[1] 2019'!K14*100</f>
+      <c r="G54" s="18">
         <v>6.1769622035587552</v>
       </c>
-      <c r="H54" s="23">
-        <f>'[1] 2019'!H14/'[1] 2019'!L14*100</f>
+      <c r="H54" s="18">
         <v>6.4387895782163893</v>
       </c>
-      <c r="I54" s="23">
-        <f>('[1] 2019'!G14+'[1] 2019'!H14)/('[1] 2019'!K14+'[1] 2019'!L14)*100</f>
+      <c r="I54" s="18">
         <v>6.3205911588617578</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
+    <row r="55" spans="2:11" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="54">
         <v>2019</v>
       </c>
-      <c r="D55" s="28">
-        <f>'[1] 2019'!G15/1000</f>
+      <c r="D55" s="55">
         <v>334.96552000000003</v>
       </c>
-      <c r="E55" s="28">
-        <f>'[1] 2019'!H15/1000</f>
+      <c r="E55" s="55">
         <v>348.67526000000004</v>
       </c>
-      <c r="F55" s="28">
-        <f t="shared" si="8"/>
+      <c r="F55" s="55">
         <v>683.64078000000006</v>
       </c>
-      <c r="G55" s="24">
-        <f>'[1] 2019'!G15/'[1] 2019'!K15*100</f>
+      <c r="G55" s="53">
         <v>11.594974270717092</v>
       </c>
-      <c r="H55" s="24">
-        <f>'[1] 2019'!H15/'[1] 2019'!L15*100</f>
+      <c r="H55" s="53">
         <v>11.487735548811754</v>
       </c>
-      <c r="I55" s="24">
-        <f>('[1] 2019'!G15+'[1] 2019'!H15)/('[1] 2019'!K15+'[1] 2019'!L15)*100</f>
+      <c r="I55" s="53">
         <v>11.540030642557959</v>
       </c>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-    </row>
-    <row r="56" spans="2:11" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
+      <c r="J55" s="56"/>
+      <c r="K55" s="56"/>
+    </row>
+    <row r="56" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
     </row>
     <row r="57" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
     </row>
-    <row r="58" spans="2:11" s="35" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
+    <row r="58" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="2:11" s="35" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="36"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
+    <row r="59" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
       <c r="K59" s="8"/>
     </row>
-    <row r="60" spans="2:11" s="35" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38" t="s">
+    <row r="60" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="38"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="62" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="39" t="s">
+    <row r="61" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="39" t="s">
+    <row r="63" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="39" t="s">
+    <row r="64" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="41" t="s">
+    <row r="65" spans="2:2" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="10" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="66" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="81" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="82" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="83" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="84" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="85" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="86" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="87" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="88" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="89" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="90" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="91" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="92" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="93" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="94" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="95" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="96" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="97" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="98" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="99" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="100" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="101" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="102" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="103" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="104" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="105" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="106" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="107" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="108" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="109" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="110" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="111" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="112" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="113" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="114" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="115" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="116" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="117" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="118" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="119" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="120" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="121" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="122" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="123" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="124" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="125" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="126" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="127" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="128" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="129" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="130" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="131" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="132" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="133" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="134" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="135" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="136" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="137" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="138" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="139" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="140" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="141" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="142" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="143" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="144" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="145" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="146" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="147" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="148" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="149" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="150" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="151" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="152" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="153" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="154" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="155" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="156" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="157" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="158" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="159" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="160" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="161" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="162" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="163" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="164" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="165" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="166" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="167" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="168" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="169" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="170" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="171" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="172" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="173" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="174" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="175" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="176" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="177" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="178" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="179" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="180" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="181" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="182" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="183" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="184" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="185" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="186" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="187" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="188" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="189" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B58:J58"/>

--- a/assets/excel/2021_8-1-1.xlsx
+++ b/assets/excel/2021_8-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C340CD26-B0EB-4AA3-8444-29297616594D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24834399-6D65-4625-B399-3D2278393774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{3ED27CCD-7831-47CD-9649-40DDA4FF2B68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="23">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -102,6 +102,9 @@
       </rPr>
       <t>1)</t>
     </r>
+  </si>
+  <si>
+    <t>2) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
   </si>
 </sst>
 </file>
@@ -441,6 +444,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -488,36 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F150A0D7-5577-4BEA-A4C0-1815A7A8D6E5}">
-  <dimension ref="B1:L189"/>
+  <dimension ref="B1:L190"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,28 +896,28 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="40" t="s">
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="11" t="s">
         <v>6</v>
       </c>
@@ -924,20 +927,20 @@
       <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="44">
+      <c r="B8" s="44"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="54">
         <v>1000</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="13" t="s">
         <v>9</v>
       </c>
@@ -951,16 +954,16 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46" t="s">
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
@@ -1103,33 +1106,33 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="2:12" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="48" t="s">
+    <row r="15" spans="2:12" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="32">
         <v>2011</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="33">
         <v>268.64904999999999</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="33">
         <v>285.91305999999997</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="33">
         <v>554.56210999999996</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="34">
         <v>9.1769477795528598</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="34">
         <v>9.1111938031645465</v>
       </c>
-      <c r="I15" s="50">
+      <c r="I15" s="34">
         <v>9.142929222004609</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" spans="2:12" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
@@ -1243,33 +1246,33 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="32">
         <v>2012</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="33">
         <v>271.69988000000001</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="33">
         <v>288.93670000000003</v>
       </c>
-      <c r="F20" s="49">
+      <c r="F20" s="33">
         <v>560.63658000000009</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="34">
         <v>9.2880375902806556</v>
       </c>
-      <c r="H20" s="50">
+      <c r="H20" s="34">
         <v>9.2384700720590036</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="34">
         <v>9.2624256117437511</v>
       </c>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
@@ -1383,33 +1386,33 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="48" t="s">
+    <row r="25" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="32">
         <v>2013</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="33">
         <v>281.22111000000001</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="33">
         <v>295.90785999999997</v>
       </c>
-      <c r="F25" s="49">
+      <c r="F25" s="33">
         <v>577.12896999999998</v>
       </c>
-      <c r="G25" s="50">
+      <c r="G25" s="34">
         <v>9.5988478724704596</v>
       </c>
-      <c r="H25" s="50">
+      <c r="H25" s="34">
         <v>9.4548366194110027</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="34">
         <v>9.5244660755135637</v>
       </c>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
@@ -1523,33 +1526,33 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="48" t="s">
+    <row r="30" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="32">
         <v>2014</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="33">
         <v>273.68074000000001</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="33">
         <v>291.31491</v>
       </c>
-      <c r="F30" s="49">
+      <c r="F30" s="33">
         <v>564.99565000000007</v>
       </c>
-      <c r="G30" s="50">
+      <c r="G30" s="34">
         <v>9.2952305176292285</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="37">
         <v>9.3158851418018607</v>
       </c>
-      <c r="I30" s="50">
+      <c r="I30" s="34">
         <v>9.3058687066249792</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
@@ -1663,33 +1666,33 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
-    <row r="35" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="48" t="s">
+    <row r="35" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="32">
         <v>2015</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="33">
         <v>273.21007000000003</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="33">
         <v>288.58053999999998</v>
       </c>
-      <c r="F35" s="49">
+      <c r="F35" s="33">
         <v>561.79061000000002</v>
       </c>
-      <c r="G35" s="50">
+      <c r="G35" s="34">
         <v>9.2347250762275301</v>
       </c>
-      <c r="H35" s="50">
+      <c r="H35" s="34">
         <v>9.1868168565262902</v>
       </c>
-      <c r="I35" s="50">
+      <c r="I35" s="34">
         <v>9.2100533415925501</v>
       </c>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
@@ -1803,33 +1806,33 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="48" t="s">
+    <row r="40" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="32">
         <v>2016</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="33">
         <v>294.66022999999996</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="33">
         <v>301.26299</v>
       </c>
-      <c r="F40" s="49">
+      <c r="F40" s="33">
         <v>595.9232199999999</v>
       </c>
-      <c r="G40" s="50">
+      <c r="G40" s="34">
         <v>9.9593766853289623</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="34">
         <v>9.6415614985949905</v>
       </c>
-      <c r="I40" s="50">
+      <c r="I40" s="34">
         <v>9.7961326204420125</v>
       </c>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
@@ -1943,33 +1946,33 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="48" t="s">
+    <row r="45" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="32">
         <v>2017</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="33">
         <v>350.03414000000004</v>
       </c>
-      <c r="E45" s="49">
+      <c r="E45" s="33">
         <v>351.38353999999998</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="33">
         <v>701.41768000000002</v>
       </c>
-      <c r="G45" s="50">
+      <c r="G45" s="34">
         <v>12.007694836952282</v>
       </c>
-      <c r="H45" s="50">
+      <c r="H45" s="34">
         <v>11.554486278898048</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I45" s="34">
         <v>11.776296152756677</v>
       </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
@@ -2083,33 +2086,33 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="2:11" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="48" t="s">
+    <row r="50" spans="2:11" s="36" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="48">
+      <c r="C50" s="32">
         <v>2018</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="33">
         <v>328.89071000000001</v>
       </c>
-      <c r="E50" s="49">
+      <c r="E50" s="33">
         <v>342.42012</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="33">
         <v>671.31083000000001</v>
       </c>
-      <c r="G50" s="50">
+      <c r="G50" s="34">
         <v>11.351085731819232</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="34">
         <v>11.294826375948235</v>
       </c>
-      <c r="I50" s="50">
+      <c r="I50" s="34">
         <v>11.322319285430122</v>
       </c>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
@@ -2223,33 +2226,33 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="2:11" s="57" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="54" t="s">
+    <row r="55" spans="2:11" s="41" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="54">
+      <c r="C55" s="38">
         <v>2019</v>
       </c>
-      <c r="D55" s="55">
+      <c r="D55" s="39">
         <v>334.96552000000003</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="39">
         <v>348.67526000000004</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F55" s="39">
         <v>683.64078000000006</v>
       </c>
-      <c r="G55" s="53">
+      <c r="G55" s="37">
         <v>11.594974270717092</v>
       </c>
-      <c r="H55" s="53">
+      <c r="H55" s="37">
         <v>11.487735548811754</v>
       </c>
-      <c r="I55" s="53">
+      <c r="I55" s="37">
         <v>11.540030642557959</v>
       </c>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
     </row>
     <row r="56" spans="2:11" s="7" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="21"/>
@@ -2276,36 +2279,36 @@
       <c r="K57" s="8"/>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
       <c r="K58" s="8"/>
     </row>
-    <row r="59" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
+    <row r="59" spans="2:11" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
       <c r="K59" s="8"/>
     </row>
     <row r="60" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="30"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
       <c r="D60" s="29"/>
       <c r="E60" s="29"/>
       <c r="F60" s="29"/>
@@ -2315,28 +2318,41 @@
       <c r="J60" s="29"/>
       <c r="K60" s="8"/>
     </row>
-    <row r="61" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
+    <row r="61" spans="2:11" s="27" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="30"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="8"/>
+    </row>
+    <row r="62" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="2:11" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="2:2" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="10" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="67" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="69" spans="2:2" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
@@ -2460,8 +2476,10 @@
     <row r="187" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="188" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
     <row r="189" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
+    <row r="190" s="10" customFormat="1" ht="8.25" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B59:J59"/>
     <mergeCell ref="B58:J58"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -2471,7 +2489,7 @@
     <mergeCell ref="G9:I9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B65" r:id="rId1" xr:uid="{0A153FDA-E3A9-4294-A2DC-B7CB53E079FE}"/>
+    <hyperlink ref="B66" r:id="rId1" xr:uid="{0A153FDA-E3A9-4294-A2DC-B7CB53E079FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/excel/2021_8-1-1.xlsx
+++ b/assets/excel/2021_8-1-1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24834399-6D65-4625-B399-3D2278393774}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A5ACE9-0DAD-4B50-9B83-2396A92B7273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{3ED27CCD-7831-47CD-9649-40DDA4FF2B68}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="14010" xr2:uid="{3ED27CCD-7831-47CD-9649-40DDA4FF2B68}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -91,20 +91,10 @@
     <t>https://www.integrationsmonitoring.niedersachsen.de</t>
   </si>
   <si>
-    <r>
-      <t>Tabelle 8.1.1: Bei Bundes- und Landtagswahlen wahlberechtigte Bevölkerung mit Zuwanderungsgeschichte nach Altersgruppen und Geschlecht im Jahr 2019</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="NDSFrutiger 55 Roman"/>
-      </rPr>
-      <t>1)</t>
-    </r>
+    <t>2) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
   </si>
   <si>
-    <t>2) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes</t>
+    <t>Tabelle 8.1.1: Bei Bundes- und Landtagswahlen wahlberechtigte Bevölkerung mit Zuwanderungsgeschichte nach Altersgruppen und Geschlecht</t>
   </si>
 </sst>
 </file>
@@ -117,7 +107,7 @@
     <numFmt numFmtId="166" formatCode="[&lt;5]&quot;-&quot;;[&lt;10]\(0.0\);#\ ###.0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,11 +121,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="NDSFrutiger 55 Roman"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
       <name val="NDSFrutiger 55 Roman"/>
     </font>
     <font>
@@ -352,7 +337,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -375,97 +360,97 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -474,52 +459,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,6 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F150A0D7-5577-4BEA-A4C0-1815A7A8D6E5}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:L190"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -871,7 +857,7 @@
     </row>
     <row r="4" spans="2:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -2294,7 +2280,7 @@
     </row>
     <row r="59" spans="2:11" s="27" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" s="42"/>
       <c r="D59" s="42"/>
